--- a/results/catboost_categorical_processing/runtimes.xlsx
+++ b/results/catboost_categorical_processing/runtimes.xlsx
@@ -465,16 +465,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.75765705108643</v>
+        <v>81.95162343978882</v>
       </c>
       <c r="B2" t="n">
-        <v>57.95535039901733</v>
+        <v>50.19635820388794</v>
       </c>
       <c r="C2" t="n">
-        <v>21.82326507568359</v>
+        <v>23.62021422386169</v>
       </c>
       <c r="D2" t="n">
-        <v>22.15961527824402</v>
+        <v>24.95228934288025</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -484,16 +484,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.03831601142883</v>
+        <v>48.13237404823303</v>
       </c>
       <c r="B3" t="n">
-        <v>57.25469970703125</v>
+        <v>63.16478085517883</v>
       </c>
       <c r="C3" t="n">
-        <v>40.53054523468018</v>
+        <v>32.04254674911499</v>
       </c>
       <c r="D3" t="n">
-        <v>254.9472899436951</v>
+        <v>274.609308719635</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>

--- a/results/catboost_categorical_processing/runtimes.xlsx
+++ b/results/catboost_categorical_processing/runtimes.xlsx
@@ -465,16 +465,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.75765705108643</v>
+        <v>19.96293902397156</v>
       </c>
       <c r="B2" t="n">
-        <v>57.95535039901733</v>
+        <v>53.91193723678589</v>
       </c>
       <c r="C2" t="n">
-        <v>21.82326507568359</v>
+        <v>24.96419835090637</v>
       </c>
       <c r="D2" t="n">
-        <v>22.15961527824402</v>
+        <v>21.12013936042786</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -484,16 +484,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.03831601142883</v>
+        <v>44.26940679550171</v>
       </c>
       <c r="B3" t="n">
-        <v>57.25469970703125</v>
+        <v>74.43961501121521</v>
       </c>
       <c r="C3" t="n">
-        <v>40.53054523468018</v>
+        <v>43.81559324264526</v>
       </c>
       <c r="D3" t="n">
-        <v>254.9472899436951</v>
+        <v>347.1847562789917</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
